--- a/mesh1d_gen_1.xlsx
+++ b/mesh1d_gen_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5808" yWindow="1896" windowWidth="17136" windowHeight="12312"/>
+    <workbookView xWindow="5805" yWindow="1890" windowWidth="17130" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,13 +389,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="34" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
@@ -632,12 +632,12 @@
         <v>152 46</v>
       </c>
       <c r="AH3" t="str">
-        <f t="shared" si="1"/>
+        <f>1&amp;AH$2&amp;" "&amp;$B3</f>
         <v>153 46</v>
       </c>
       <c r="AI3" t="str">
-        <f>1&amp;AI$2&amp;","&amp;$B3</f>
-        <v>154,46</v>
+        <f>1&amp;AI$2&amp;" "&amp;$B3</f>
+        <v>154 46</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.15">
@@ -777,8 +777,8 @@
         <v>153 45.3333333333333</v>
       </c>
       <c r="AI4" t="str">
-        <f t="shared" ref="AI4:AI42" si="3">1&amp;AI$2&amp;","&amp;$B4</f>
-        <v>154,45.3333333333333</v>
+        <f t="shared" ref="AI4:AI42" si="3">1&amp;AI$2&amp;" "&amp;$B4</f>
+        <v>154 45.3333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
@@ -919,7 +919,7 @@
       </c>
       <c r="AI5" t="str">
         <f t="shared" si="3"/>
-        <v>154,44.6666666666667</v>
+        <v>154 44.6666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI6" t="str">
         <f t="shared" si="3"/>
-        <v>154,44</v>
+        <v>154 44</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.15">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="AI7" t="str">
         <f t="shared" si="3"/>
-        <v>154,43.3333333333333</v>
+        <v>154 43.3333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AI8" t="str">
         <f t="shared" si="3"/>
-        <v>154,42.6666666666667</v>
+        <v>154 42.6666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.15">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="AI9" t="str">
         <f t="shared" si="3"/>
-        <v>154,42</v>
+        <v>154 42</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="AI10" t="str">
         <f t="shared" si="3"/>
-        <v>154,41.3333333333333</v>
+        <v>154 41.3333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="AI11" t="str">
         <f t="shared" si="3"/>
-        <v>154,40.6666666666667</v>
+        <v>154 40.6666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.15">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="AI12" t="str">
         <f t="shared" si="3"/>
-        <v>154,40</v>
+        <v>154 40</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="AI13" t="str">
         <f t="shared" si="3"/>
-        <v>154,39.3333333333333</v>
+        <v>154 39.3333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AI14" t="str">
         <f t="shared" si="3"/>
-        <v>154,38.6666666666667</v>
+        <v>154 38.6666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.15">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="AI15" t="str">
         <f t="shared" si="3"/>
-        <v>154,38</v>
+        <v>154 38</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.15">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="AI16" t="str">
         <f t="shared" si="3"/>
-        <v>154,37.3333333333333</v>
+        <v>154 37.3333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.15">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="AI17" t="str">
         <f t="shared" si="3"/>
-        <v>154,36.6666666666667</v>
+        <v>154 36.6666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.15">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="AI18" t="str">
         <f t="shared" si="3"/>
-        <v>154,36</v>
+        <v>154 36</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.15">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="AI19" t="str">
         <f t="shared" si="3"/>
-        <v>154,35.3333333333333</v>
+        <v>154 35.3333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.15">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="AI20" t="str">
         <f t="shared" si="3"/>
-        <v>154,34.6666666666667</v>
+        <v>154 34.6666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.15">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="AI21" t="str">
         <f t="shared" si="3"/>
-        <v>154,34</v>
+        <v>154 34</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.15">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="AI22" t="str">
         <f t="shared" si="3"/>
-        <v>154,33.3333333333333</v>
+        <v>154 33.3333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.15">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="AI23" t="str">
         <f t="shared" si="3"/>
-        <v>154,32.6666666666667</v>
+        <v>154 32.6666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.15">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="AI24" t="str">
         <f t="shared" si="3"/>
-        <v>154,32</v>
+        <v>154 32</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.15">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="AI25" t="str">
         <f t="shared" si="3"/>
-        <v>154,31.3333333333333</v>
+        <v>154 31.3333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.15">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="AI26" t="str">
         <f t="shared" si="3"/>
-        <v>154,30.6666666666667</v>
+        <v>154 30.6666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.15">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="AI27" t="str">
         <f t="shared" si="3"/>
-        <v>154,30</v>
+        <v>154 30</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.15">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="AI28" t="str">
         <f t="shared" si="3"/>
-        <v>154,29.3333333333333</v>
+        <v>154 29.3333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.15">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="AI29" t="str">
         <f t="shared" si="3"/>
-        <v>154,28.6666666666667</v>
+        <v>154 28.6666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.15">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="AI30" t="str">
         <f t="shared" si="3"/>
-        <v>154,28</v>
+        <v>154 28</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.15">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="AI31" t="str">
         <f t="shared" si="3"/>
-        <v>154,27.3333333333333</v>
+        <v>154 27.3333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.15">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="AI32" t="str">
         <f t="shared" si="3"/>
-        <v>154,26.6666666666667</v>
+        <v>154 26.6666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.15">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="AI33" t="str">
         <f t="shared" si="3"/>
-        <v>154,26</v>
+        <v>154 26</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.15">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="AI34" t="str">
         <f t="shared" si="3"/>
-        <v>154,25.3333333333333</v>
+        <v>154 25.3333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.15">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="AI35" t="str">
         <f t="shared" si="3"/>
-        <v>154,24.6666666666667</v>
+        <v>154 24.6666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.15">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="AI36" t="str">
         <f t="shared" si="3"/>
-        <v>154,24</v>
+        <v>154 24</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.15">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="AI37" t="str">
         <f t="shared" si="3"/>
-        <v>154,23.3333333333333</v>
+        <v>154 23.3333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.15">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="AI38" t="str">
         <f t="shared" si="3"/>
-        <v>154,22.6666666666667</v>
+        <v>154 22.6666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.15">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="AI39" t="str">
         <f t="shared" si="3"/>
-        <v>154,22</v>
+        <v>154 22</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.15">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="AI40" t="str">
         <f t="shared" si="3"/>
-        <v>154,21.3333333333333</v>
+        <v>154 21.3333333333333</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.15">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="AI41" t="str">
         <f t="shared" si="3"/>
-        <v>154,20.6666666666667</v>
+        <v>154 20.6666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.15">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="AI42" t="str">
         <f t="shared" si="3"/>
-        <v>154,20</v>
+        <v>154 20</v>
       </c>
     </row>
   </sheetData>
@@ -6150,13 +6150,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:AI41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AI3" sqref="C3:AI41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="122.44140625" customWidth="1"/>
+    <col min="3" max="3" width="122.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:35" x14ac:dyDescent="0.15">
@@ -6286,11 +6286,11 @@
       </c>
       <c r="AH3" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH4&amp;","&amp;Sheet1!AH3&amp;","&amp;Sheet1!AI3&amp;","&amp;Sheet1!AI4&amp;","&amp;Sheet1!AH4&amp;"))"&amp;";"&amp;Sheet1!$A4&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 45.3333333333333,153 46,154,46,154,45.3333333333333,153 45.3333333333333));6853</v>
+        <v>POLYGON ((153 45.3333333333333,153 46,154 46,154 45.3333333333333,153 45.3333333333333));6853</v>
       </c>
       <c r="AI3" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI4&amp;","&amp;Sheet1!AI3&amp;","&amp;Sheet1!AJ3&amp;","&amp;Sheet1!AJ4&amp;","&amp;Sheet1!AI4&amp;"))"&amp;";"&amp;Sheet1!$A4&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,45.3333333333333,154,46,,,154,45.3333333333333));6854</v>
+        <v>POLYGON ((154 45.3333333333333,154 46,,,154 45.3333333333333));6854</v>
       </c>
     </row>
     <row r="4" spans="3:35" x14ac:dyDescent="0.15">
@@ -6420,11 +6420,11 @@
       </c>
       <c r="AH4" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH5&amp;","&amp;Sheet1!AH4&amp;","&amp;Sheet1!AI4&amp;","&amp;Sheet1!AI5&amp;","&amp;Sheet1!AH5&amp;"))"&amp;";"&amp;Sheet1!$A5&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 44.6666666666667,153 45.3333333333333,154,45.3333333333333,154,44.6666666666667,153 44.6666666666667));6753</v>
+        <v>POLYGON ((153 44.6666666666667,153 45.3333333333333,154 45.3333333333333,154 44.6666666666667,153 44.6666666666667));6753</v>
       </c>
       <c r="AI4" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI5&amp;","&amp;Sheet1!AI4&amp;","&amp;Sheet1!AJ4&amp;","&amp;Sheet1!AJ5&amp;","&amp;Sheet1!AI5&amp;"))"&amp;";"&amp;Sheet1!$A5&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,44.6666666666667,154,45.3333333333333,,,154,44.6666666666667));6754</v>
+        <v>POLYGON ((154 44.6666666666667,154 45.3333333333333,,,154 44.6666666666667));6754</v>
       </c>
     </row>
     <row r="5" spans="3:35" x14ac:dyDescent="0.15">
@@ -6554,11 +6554,11 @@
       </c>
       <c r="AH5" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH6&amp;","&amp;Sheet1!AH5&amp;","&amp;Sheet1!AI5&amp;","&amp;Sheet1!AI6&amp;","&amp;Sheet1!AH6&amp;"))"&amp;";"&amp;Sheet1!$A6&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 44,153 44.6666666666667,154,44.6666666666667,154,44,153 44));6653</v>
+        <v>POLYGON ((153 44,153 44.6666666666667,154 44.6666666666667,154 44,153 44));6653</v>
       </c>
       <c r="AI5" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI6&amp;","&amp;Sheet1!AI5&amp;","&amp;Sheet1!AJ5&amp;","&amp;Sheet1!AJ6&amp;","&amp;Sheet1!AI6&amp;"))"&amp;";"&amp;Sheet1!$A6&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,44,154,44.6666666666667,,,154,44));6654</v>
+        <v>POLYGON ((154 44,154 44.6666666666667,,,154 44));6654</v>
       </c>
     </row>
     <row r="6" spans="3:35" x14ac:dyDescent="0.15">
@@ -6688,11 +6688,11 @@
       </c>
       <c r="AH6" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH7&amp;","&amp;Sheet1!AH6&amp;","&amp;Sheet1!AI6&amp;","&amp;Sheet1!AI7&amp;","&amp;Sheet1!AH7&amp;"))"&amp;";"&amp;Sheet1!$A7&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 43.3333333333333,153 44,154,44,154,43.3333333333333,153 43.3333333333333));6553</v>
+        <v>POLYGON ((153 43.3333333333333,153 44,154 44,154 43.3333333333333,153 43.3333333333333));6553</v>
       </c>
       <c r="AI6" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI7&amp;","&amp;Sheet1!AI6&amp;","&amp;Sheet1!AJ6&amp;","&amp;Sheet1!AJ7&amp;","&amp;Sheet1!AI7&amp;"))"&amp;";"&amp;Sheet1!$A7&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,43.3333333333333,154,44,,,154,43.3333333333333));6554</v>
+        <v>POLYGON ((154 43.3333333333333,154 44,,,154 43.3333333333333));6554</v>
       </c>
     </row>
     <row r="7" spans="3:35" x14ac:dyDescent="0.15">
@@ -6822,11 +6822,11 @@
       </c>
       <c r="AH7" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH8&amp;","&amp;Sheet1!AH7&amp;","&amp;Sheet1!AI7&amp;","&amp;Sheet1!AI8&amp;","&amp;Sheet1!AH8&amp;"))"&amp;";"&amp;Sheet1!$A8&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 42.6666666666667,153 43.3333333333333,154,43.3333333333333,154,42.6666666666667,153 42.6666666666667));6453</v>
+        <v>POLYGON ((153 42.6666666666667,153 43.3333333333333,154 43.3333333333333,154 42.6666666666667,153 42.6666666666667));6453</v>
       </c>
       <c r="AI7" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI8&amp;","&amp;Sheet1!AI7&amp;","&amp;Sheet1!AJ7&amp;","&amp;Sheet1!AJ8&amp;","&amp;Sheet1!AI8&amp;"))"&amp;";"&amp;Sheet1!$A8&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,42.6666666666667,154,43.3333333333333,,,154,42.6666666666667));6454</v>
+        <v>POLYGON ((154 42.6666666666667,154 43.3333333333333,,,154 42.6666666666667));6454</v>
       </c>
     </row>
     <row r="8" spans="3:35" x14ac:dyDescent="0.15">
@@ -6956,11 +6956,11 @@
       </c>
       <c r="AH8" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH9&amp;","&amp;Sheet1!AH8&amp;","&amp;Sheet1!AI8&amp;","&amp;Sheet1!AI9&amp;","&amp;Sheet1!AH9&amp;"))"&amp;";"&amp;Sheet1!$A9&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 42,153 42.6666666666667,154,42.6666666666667,154,42,153 42));6353</v>
+        <v>POLYGON ((153 42,153 42.6666666666667,154 42.6666666666667,154 42,153 42));6353</v>
       </c>
       <c r="AI8" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI9&amp;","&amp;Sheet1!AI8&amp;","&amp;Sheet1!AJ8&amp;","&amp;Sheet1!AJ9&amp;","&amp;Sheet1!AI9&amp;"))"&amp;";"&amp;Sheet1!$A9&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,42,154,42.6666666666667,,,154,42));6354</v>
+        <v>POLYGON ((154 42,154 42.6666666666667,,,154 42));6354</v>
       </c>
     </row>
     <row r="9" spans="3:35" x14ac:dyDescent="0.15">
@@ -7090,11 +7090,11 @@
       </c>
       <c r="AH9" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH10&amp;","&amp;Sheet1!AH9&amp;","&amp;Sheet1!AI9&amp;","&amp;Sheet1!AI10&amp;","&amp;Sheet1!AH10&amp;"))"&amp;";"&amp;Sheet1!$A10&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 41.3333333333333,153 42,154,42,154,41.3333333333333,153 41.3333333333333));6253</v>
+        <v>POLYGON ((153 41.3333333333333,153 42,154 42,154 41.3333333333333,153 41.3333333333333));6253</v>
       </c>
       <c r="AI9" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI10&amp;","&amp;Sheet1!AI9&amp;","&amp;Sheet1!AJ9&amp;","&amp;Sheet1!AJ10&amp;","&amp;Sheet1!AI10&amp;"))"&amp;";"&amp;Sheet1!$A10&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,41.3333333333333,154,42,,,154,41.3333333333333));6254</v>
+        <v>POLYGON ((154 41.3333333333333,154 42,,,154 41.3333333333333));6254</v>
       </c>
     </row>
     <row r="10" spans="3:35" x14ac:dyDescent="0.15">
@@ -7224,11 +7224,11 @@
       </c>
       <c r="AH10" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH11&amp;","&amp;Sheet1!AH10&amp;","&amp;Sheet1!AI10&amp;","&amp;Sheet1!AI11&amp;","&amp;Sheet1!AH11&amp;"))"&amp;";"&amp;Sheet1!$A11&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 40.6666666666667,153 41.3333333333333,154,41.3333333333333,154,40.6666666666667,153 40.6666666666667));6153</v>
+        <v>POLYGON ((153 40.6666666666667,153 41.3333333333333,154 41.3333333333333,154 40.6666666666667,153 40.6666666666667));6153</v>
       </c>
       <c r="AI10" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI11&amp;","&amp;Sheet1!AI10&amp;","&amp;Sheet1!AJ10&amp;","&amp;Sheet1!AJ11&amp;","&amp;Sheet1!AI11&amp;"))"&amp;";"&amp;Sheet1!$A11&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,40.6666666666667,154,41.3333333333333,,,154,40.6666666666667));6154</v>
+        <v>POLYGON ((154 40.6666666666667,154 41.3333333333333,,,154 40.6666666666667));6154</v>
       </c>
     </row>
     <row r="11" spans="3:35" x14ac:dyDescent="0.15">
@@ -7358,11 +7358,11 @@
       </c>
       <c r="AH11" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH12&amp;","&amp;Sheet1!AH11&amp;","&amp;Sheet1!AI11&amp;","&amp;Sheet1!AI12&amp;","&amp;Sheet1!AH12&amp;"))"&amp;";"&amp;Sheet1!$A12&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 40,153 40.6666666666667,154,40.6666666666667,154,40,153 40));6053</v>
+        <v>POLYGON ((153 40,153 40.6666666666667,154 40.6666666666667,154 40,153 40));6053</v>
       </c>
       <c r="AI11" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI12&amp;","&amp;Sheet1!AI11&amp;","&amp;Sheet1!AJ11&amp;","&amp;Sheet1!AJ12&amp;","&amp;Sheet1!AI12&amp;"))"&amp;";"&amp;Sheet1!$A12&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,40,154,40.6666666666667,,,154,40));6054</v>
+        <v>POLYGON ((154 40,154 40.6666666666667,,,154 40));6054</v>
       </c>
     </row>
     <row r="12" spans="3:35" x14ac:dyDescent="0.15">
@@ -7492,11 +7492,11 @@
       </c>
       <c r="AH12" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH13&amp;","&amp;Sheet1!AH12&amp;","&amp;Sheet1!AI12&amp;","&amp;Sheet1!AI13&amp;","&amp;Sheet1!AH13&amp;"))"&amp;";"&amp;Sheet1!$A13&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 39.3333333333333,153 40,154,40,154,39.3333333333333,153 39.3333333333333));5953</v>
+        <v>POLYGON ((153 39.3333333333333,153 40,154 40,154 39.3333333333333,153 39.3333333333333));5953</v>
       </c>
       <c r="AI12" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI13&amp;","&amp;Sheet1!AI12&amp;","&amp;Sheet1!AJ12&amp;","&amp;Sheet1!AJ13&amp;","&amp;Sheet1!AI13&amp;"))"&amp;";"&amp;Sheet1!$A13&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,39.3333333333333,154,40,,,154,39.3333333333333));5954</v>
+        <v>POLYGON ((154 39.3333333333333,154 40,,,154 39.3333333333333));5954</v>
       </c>
     </row>
     <row r="13" spans="3:35" x14ac:dyDescent="0.15">
@@ -7626,11 +7626,11 @@
       </c>
       <c r="AH13" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH14&amp;","&amp;Sheet1!AH13&amp;","&amp;Sheet1!AI13&amp;","&amp;Sheet1!AI14&amp;","&amp;Sheet1!AH14&amp;"))"&amp;";"&amp;Sheet1!$A14&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 38.6666666666667,153 39.3333333333333,154,39.3333333333333,154,38.6666666666667,153 38.6666666666667));5853</v>
+        <v>POLYGON ((153 38.6666666666667,153 39.3333333333333,154 39.3333333333333,154 38.6666666666667,153 38.6666666666667));5853</v>
       </c>
       <c r="AI13" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI14&amp;","&amp;Sheet1!AI13&amp;","&amp;Sheet1!AJ13&amp;","&amp;Sheet1!AJ14&amp;","&amp;Sheet1!AI14&amp;"))"&amp;";"&amp;Sheet1!$A14&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,38.6666666666667,154,39.3333333333333,,,154,38.6666666666667));5854</v>
+        <v>POLYGON ((154 38.6666666666667,154 39.3333333333333,,,154 38.6666666666667));5854</v>
       </c>
     </row>
     <row r="14" spans="3:35" x14ac:dyDescent="0.15">
@@ -7760,11 +7760,11 @@
       </c>
       <c r="AH14" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH15&amp;","&amp;Sheet1!AH14&amp;","&amp;Sheet1!AI14&amp;","&amp;Sheet1!AI15&amp;","&amp;Sheet1!AH15&amp;"))"&amp;";"&amp;Sheet1!$A15&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 38,153 38.6666666666667,154,38.6666666666667,154,38,153 38));5753</v>
+        <v>POLYGON ((153 38,153 38.6666666666667,154 38.6666666666667,154 38,153 38));5753</v>
       </c>
       <c r="AI14" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI15&amp;","&amp;Sheet1!AI14&amp;","&amp;Sheet1!AJ14&amp;","&amp;Sheet1!AJ15&amp;","&amp;Sheet1!AI15&amp;"))"&amp;";"&amp;Sheet1!$A15&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,38,154,38.6666666666667,,,154,38));5754</v>
+        <v>POLYGON ((154 38,154 38.6666666666667,,,154 38));5754</v>
       </c>
     </row>
     <row r="15" spans="3:35" x14ac:dyDescent="0.15">
@@ -7894,11 +7894,11 @@
       </c>
       <c r="AH15" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH16&amp;","&amp;Sheet1!AH15&amp;","&amp;Sheet1!AI15&amp;","&amp;Sheet1!AI16&amp;","&amp;Sheet1!AH16&amp;"))"&amp;";"&amp;Sheet1!$A16&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 37.3333333333333,153 38,154,38,154,37.3333333333333,153 37.3333333333333));5653</v>
+        <v>POLYGON ((153 37.3333333333333,153 38,154 38,154 37.3333333333333,153 37.3333333333333));5653</v>
       </c>
       <c r="AI15" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI16&amp;","&amp;Sheet1!AI15&amp;","&amp;Sheet1!AJ15&amp;","&amp;Sheet1!AJ16&amp;","&amp;Sheet1!AI16&amp;"))"&amp;";"&amp;Sheet1!$A16&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,37.3333333333333,154,38,,,154,37.3333333333333));5654</v>
+        <v>POLYGON ((154 37.3333333333333,154 38,,,154 37.3333333333333));5654</v>
       </c>
     </row>
     <row r="16" spans="3:35" x14ac:dyDescent="0.15">
@@ -8028,11 +8028,11 @@
       </c>
       <c r="AH16" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH17&amp;","&amp;Sheet1!AH16&amp;","&amp;Sheet1!AI16&amp;","&amp;Sheet1!AI17&amp;","&amp;Sheet1!AH17&amp;"))"&amp;";"&amp;Sheet1!$A17&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 36.6666666666667,153 37.3333333333333,154,37.3333333333333,154,36.6666666666667,153 36.6666666666667));5553</v>
+        <v>POLYGON ((153 36.6666666666667,153 37.3333333333333,154 37.3333333333333,154 36.6666666666667,153 36.6666666666667));5553</v>
       </c>
       <c r="AI16" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI17&amp;","&amp;Sheet1!AI16&amp;","&amp;Sheet1!AJ16&amp;","&amp;Sheet1!AJ17&amp;","&amp;Sheet1!AI17&amp;"))"&amp;";"&amp;Sheet1!$A17&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,36.6666666666667,154,37.3333333333333,,,154,36.6666666666667));5554</v>
+        <v>POLYGON ((154 36.6666666666667,154 37.3333333333333,,,154 36.6666666666667));5554</v>
       </c>
     </row>
     <row r="17" spans="3:35" x14ac:dyDescent="0.15">
@@ -8162,11 +8162,11 @@
       </c>
       <c r="AH17" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH18&amp;","&amp;Sheet1!AH17&amp;","&amp;Sheet1!AI17&amp;","&amp;Sheet1!AI18&amp;","&amp;Sheet1!AH18&amp;"))"&amp;";"&amp;Sheet1!$A18&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 36,153 36.6666666666667,154,36.6666666666667,154,36,153 36));5453</v>
+        <v>POLYGON ((153 36,153 36.6666666666667,154 36.6666666666667,154 36,153 36));5453</v>
       </c>
       <c r="AI17" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI18&amp;","&amp;Sheet1!AI17&amp;","&amp;Sheet1!AJ17&amp;","&amp;Sheet1!AJ18&amp;","&amp;Sheet1!AI18&amp;"))"&amp;";"&amp;Sheet1!$A18&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,36,154,36.6666666666667,,,154,36));5454</v>
+        <v>POLYGON ((154 36,154 36.6666666666667,,,154 36));5454</v>
       </c>
     </row>
     <row r="18" spans="3:35" x14ac:dyDescent="0.15">
@@ -8296,11 +8296,11 @@
       </c>
       <c r="AH18" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH19&amp;","&amp;Sheet1!AH18&amp;","&amp;Sheet1!AI18&amp;","&amp;Sheet1!AI19&amp;","&amp;Sheet1!AH19&amp;"))"&amp;";"&amp;Sheet1!$A19&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 35.3333333333333,153 36,154,36,154,35.3333333333333,153 35.3333333333333));5353</v>
+        <v>POLYGON ((153 35.3333333333333,153 36,154 36,154 35.3333333333333,153 35.3333333333333));5353</v>
       </c>
       <c r="AI18" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI19&amp;","&amp;Sheet1!AI18&amp;","&amp;Sheet1!AJ18&amp;","&amp;Sheet1!AJ19&amp;","&amp;Sheet1!AI19&amp;"))"&amp;";"&amp;Sheet1!$A19&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,35.3333333333333,154,36,,,154,35.3333333333333));5354</v>
+        <v>POLYGON ((154 35.3333333333333,154 36,,,154 35.3333333333333));5354</v>
       </c>
     </row>
     <row r="19" spans="3:35" x14ac:dyDescent="0.15">
@@ -8430,11 +8430,11 @@
       </c>
       <c r="AH19" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH20&amp;","&amp;Sheet1!AH19&amp;","&amp;Sheet1!AI19&amp;","&amp;Sheet1!AI20&amp;","&amp;Sheet1!AH20&amp;"))"&amp;";"&amp;Sheet1!$A20&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 34.6666666666667,153 35.3333333333333,154,35.3333333333333,154,34.6666666666667,153 34.6666666666667));5253</v>
+        <v>POLYGON ((153 34.6666666666667,153 35.3333333333333,154 35.3333333333333,154 34.6666666666667,153 34.6666666666667));5253</v>
       </c>
       <c r="AI19" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI20&amp;","&amp;Sheet1!AI19&amp;","&amp;Sheet1!AJ19&amp;","&amp;Sheet1!AJ20&amp;","&amp;Sheet1!AI20&amp;"))"&amp;";"&amp;Sheet1!$A20&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,34.6666666666667,154,35.3333333333333,,,154,34.6666666666667));5254</v>
+        <v>POLYGON ((154 34.6666666666667,154 35.3333333333333,,,154 34.6666666666667));5254</v>
       </c>
     </row>
     <row r="20" spans="3:35" x14ac:dyDescent="0.15">
@@ -8564,11 +8564,11 @@
       </c>
       <c r="AH20" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH21&amp;","&amp;Sheet1!AH20&amp;","&amp;Sheet1!AI20&amp;","&amp;Sheet1!AI21&amp;","&amp;Sheet1!AH21&amp;"))"&amp;";"&amp;Sheet1!$A21&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 34,153 34.6666666666667,154,34.6666666666667,154,34,153 34));5153</v>
+        <v>POLYGON ((153 34,153 34.6666666666667,154 34.6666666666667,154 34,153 34));5153</v>
       </c>
       <c r="AI20" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI21&amp;","&amp;Sheet1!AI20&amp;","&amp;Sheet1!AJ20&amp;","&amp;Sheet1!AJ21&amp;","&amp;Sheet1!AI21&amp;"))"&amp;";"&amp;Sheet1!$A21&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,34,154,34.6666666666667,,,154,34));5154</v>
+        <v>POLYGON ((154 34,154 34.6666666666667,,,154 34));5154</v>
       </c>
     </row>
     <row r="21" spans="3:35" x14ac:dyDescent="0.15">
@@ -8698,11 +8698,11 @@
       </c>
       <c r="AH21" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH22&amp;","&amp;Sheet1!AH21&amp;","&amp;Sheet1!AI21&amp;","&amp;Sheet1!AI22&amp;","&amp;Sheet1!AH22&amp;"))"&amp;";"&amp;Sheet1!$A22&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 33.3333333333333,153 34,154,34,154,33.3333333333333,153 33.3333333333333));5053</v>
+        <v>POLYGON ((153 33.3333333333333,153 34,154 34,154 33.3333333333333,153 33.3333333333333));5053</v>
       </c>
       <c r="AI21" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI22&amp;","&amp;Sheet1!AI21&amp;","&amp;Sheet1!AJ21&amp;","&amp;Sheet1!AJ22&amp;","&amp;Sheet1!AI22&amp;"))"&amp;";"&amp;Sheet1!$A22&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,33.3333333333333,154,34,,,154,33.3333333333333));5054</v>
+        <v>POLYGON ((154 33.3333333333333,154 34,,,154 33.3333333333333));5054</v>
       </c>
     </row>
     <row r="22" spans="3:35" x14ac:dyDescent="0.15">
@@ -8832,11 +8832,11 @@
       </c>
       <c r="AH22" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH23&amp;","&amp;Sheet1!AH22&amp;","&amp;Sheet1!AI22&amp;","&amp;Sheet1!AI23&amp;","&amp;Sheet1!AH23&amp;"))"&amp;";"&amp;Sheet1!$A23&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 32.6666666666667,153 33.3333333333333,154,33.3333333333333,154,32.6666666666667,153 32.6666666666667));4953</v>
+        <v>POLYGON ((153 32.6666666666667,153 33.3333333333333,154 33.3333333333333,154 32.6666666666667,153 32.6666666666667));4953</v>
       </c>
       <c r="AI22" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI23&amp;","&amp;Sheet1!AI22&amp;","&amp;Sheet1!AJ22&amp;","&amp;Sheet1!AJ23&amp;","&amp;Sheet1!AI23&amp;"))"&amp;";"&amp;Sheet1!$A23&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,32.6666666666667,154,33.3333333333333,,,154,32.6666666666667));4954</v>
+        <v>POLYGON ((154 32.6666666666667,154 33.3333333333333,,,154 32.6666666666667));4954</v>
       </c>
     </row>
     <row r="23" spans="3:35" x14ac:dyDescent="0.15">
@@ -8966,11 +8966,11 @@
       </c>
       <c r="AH23" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH24&amp;","&amp;Sheet1!AH23&amp;","&amp;Sheet1!AI23&amp;","&amp;Sheet1!AI24&amp;","&amp;Sheet1!AH24&amp;"))"&amp;";"&amp;Sheet1!$A24&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 32,153 32.6666666666667,154,32.6666666666667,154,32,153 32));4853</v>
+        <v>POLYGON ((153 32,153 32.6666666666667,154 32.6666666666667,154 32,153 32));4853</v>
       </c>
       <c r="AI23" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI24&amp;","&amp;Sheet1!AI23&amp;","&amp;Sheet1!AJ23&amp;","&amp;Sheet1!AJ24&amp;","&amp;Sheet1!AI24&amp;"))"&amp;";"&amp;Sheet1!$A24&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,32,154,32.6666666666667,,,154,32));4854</v>
+        <v>POLYGON ((154 32,154 32.6666666666667,,,154 32));4854</v>
       </c>
     </row>
     <row r="24" spans="3:35" x14ac:dyDescent="0.15">
@@ -9100,11 +9100,11 @@
       </c>
       <c r="AH24" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH25&amp;","&amp;Sheet1!AH24&amp;","&amp;Sheet1!AI24&amp;","&amp;Sheet1!AI25&amp;","&amp;Sheet1!AH25&amp;"))"&amp;";"&amp;Sheet1!$A25&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 31.3333333333333,153 32,154,32,154,31.3333333333333,153 31.3333333333333));4753</v>
+        <v>POLYGON ((153 31.3333333333333,153 32,154 32,154 31.3333333333333,153 31.3333333333333));4753</v>
       </c>
       <c r="AI24" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI25&amp;","&amp;Sheet1!AI24&amp;","&amp;Sheet1!AJ24&amp;","&amp;Sheet1!AJ25&amp;","&amp;Sheet1!AI25&amp;"))"&amp;";"&amp;Sheet1!$A25&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,31.3333333333333,154,32,,,154,31.3333333333333));4754</v>
+        <v>POLYGON ((154 31.3333333333333,154 32,,,154 31.3333333333333));4754</v>
       </c>
     </row>
     <row r="25" spans="3:35" x14ac:dyDescent="0.15">
@@ -9234,11 +9234,11 @@
       </c>
       <c r="AH25" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH26&amp;","&amp;Sheet1!AH25&amp;","&amp;Sheet1!AI25&amp;","&amp;Sheet1!AI26&amp;","&amp;Sheet1!AH26&amp;"))"&amp;";"&amp;Sheet1!$A26&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 30.6666666666667,153 31.3333333333333,154,31.3333333333333,154,30.6666666666667,153 30.6666666666667));4653</v>
+        <v>POLYGON ((153 30.6666666666667,153 31.3333333333333,154 31.3333333333333,154 30.6666666666667,153 30.6666666666667));4653</v>
       </c>
       <c r="AI25" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI26&amp;","&amp;Sheet1!AI25&amp;","&amp;Sheet1!AJ25&amp;","&amp;Sheet1!AJ26&amp;","&amp;Sheet1!AI26&amp;"))"&amp;";"&amp;Sheet1!$A26&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,30.6666666666667,154,31.3333333333333,,,154,30.6666666666667));4654</v>
+        <v>POLYGON ((154 30.6666666666667,154 31.3333333333333,,,154 30.6666666666667));4654</v>
       </c>
     </row>
     <row r="26" spans="3:35" x14ac:dyDescent="0.15">
@@ -9368,11 +9368,11 @@
       </c>
       <c r="AH26" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH27&amp;","&amp;Sheet1!AH26&amp;","&amp;Sheet1!AI26&amp;","&amp;Sheet1!AI27&amp;","&amp;Sheet1!AH27&amp;"))"&amp;";"&amp;Sheet1!$A27&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 30,153 30.6666666666667,154,30.6666666666667,154,30,153 30));4553</v>
+        <v>POLYGON ((153 30,153 30.6666666666667,154 30.6666666666667,154 30,153 30));4553</v>
       </c>
       <c r="AI26" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI27&amp;","&amp;Sheet1!AI26&amp;","&amp;Sheet1!AJ26&amp;","&amp;Sheet1!AJ27&amp;","&amp;Sheet1!AI27&amp;"))"&amp;";"&amp;Sheet1!$A27&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,30,154,30.6666666666667,,,154,30));4554</v>
+        <v>POLYGON ((154 30,154 30.6666666666667,,,154 30));4554</v>
       </c>
     </row>
     <row r="27" spans="3:35" x14ac:dyDescent="0.15">
@@ -9502,11 +9502,11 @@
       </c>
       <c r="AH27" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH28&amp;","&amp;Sheet1!AH27&amp;","&amp;Sheet1!AI27&amp;","&amp;Sheet1!AI28&amp;","&amp;Sheet1!AH28&amp;"))"&amp;";"&amp;Sheet1!$A28&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 29.3333333333333,153 30,154,30,154,29.3333333333333,153 29.3333333333333));4453</v>
+        <v>POLYGON ((153 29.3333333333333,153 30,154 30,154 29.3333333333333,153 29.3333333333333));4453</v>
       </c>
       <c r="AI27" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI28&amp;","&amp;Sheet1!AI27&amp;","&amp;Sheet1!AJ27&amp;","&amp;Sheet1!AJ28&amp;","&amp;Sheet1!AI28&amp;"))"&amp;";"&amp;Sheet1!$A28&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,29.3333333333333,154,30,,,154,29.3333333333333));4454</v>
+        <v>POLYGON ((154 29.3333333333333,154 30,,,154 29.3333333333333));4454</v>
       </c>
     </row>
     <row r="28" spans="3:35" x14ac:dyDescent="0.15">
@@ -9636,11 +9636,11 @@
       </c>
       <c r="AH28" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH29&amp;","&amp;Sheet1!AH28&amp;","&amp;Sheet1!AI28&amp;","&amp;Sheet1!AI29&amp;","&amp;Sheet1!AH29&amp;"))"&amp;";"&amp;Sheet1!$A29&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 28.6666666666667,153 29.3333333333333,154,29.3333333333333,154,28.6666666666667,153 28.6666666666667));4353</v>
+        <v>POLYGON ((153 28.6666666666667,153 29.3333333333333,154 29.3333333333333,154 28.6666666666667,153 28.6666666666667));4353</v>
       </c>
       <c r="AI28" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI29&amp;","&amp;Sheet1!AI28&amp;","&amp;Sheet1!AJ28&amp;","&amp;Sheet1!AJ29&amp;","&amp;Sheet1!AI29&amp;"))"&amp;";"&amp;Sheet1!$A29&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,28.6666666666667,154,29.3333333333333,,,154,28.6666666666667));4354</v>
+        <v>POLYGON ((154 28.6666666666667,154 29.3333333333333,,,154 28.6666666666667));4354</v>
       </c>
     </row>
     <row r="29" spans="3:35" x14ac:dyDescent="0.15">
@@ -9770,11 +9770,11 @@
       </c>
       <c r="AH29" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH30&amp;","&amp;Sheet1!AH29&amp;","&amp;Sheet1!AI29&amp;","&amp;Sheet1!AI30&amp;","&amp;Sheet1!AH30&amp;"))"&amp;";"&amp;Sheet1!$A30&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 28,153 28.6666666666667,154,28.6666666666667,154,28,153 28));4253</v>
+        <v>POLYGON ((153 28,153 28.6666666666667,154 28.6666666666667,154 28,153 28));4253</v>
       </c>
       <c r="AI29" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI30&amp;","&amp;Sheet1!AI29&amp;","&amp;Sheet1!AJ29&amp;","&amp;Sheet1!AJ30&amp;","&amp;Sheet1!AI30&amp;"))"&amp;";"&amp;Sheet1!$A30&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,28,154,28.6666666666667,,,154,28));4254</v>
+        <v>POLYGON ((154 28,154 28.6666666666667,,,154 28));4254</v>
       </c>
     </row>
     <row r="30" spans="3:35" x14ac:dyDescent="0.15">
@@ -9904,11 +9904,11 @@
       </c>
       <c r="AH30" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH31&amp;","&amp;Sheet1!AH30&amp;","&amp;Sheet1!AI30&amp;","&amp;Sheet1!AI31&amp;","&amp;Sheet1!AH31&amp;"))"&amp;";"&amp;Sheet1!$A31&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 27.3333333333333,153 28,154,28,154,27.3333333333333,153 27.3333333333333));4153</v>
+        <v>POLYGON ((153 27.3333333333333,153 28,154 28,154 27.3333333333333,153 27.3333333333333));4153</v>
       </c>
       <c r="AI30" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI31&amp;","&amp;Sheet1!AI30&amp;","&amp;Sheet1!AJ30&amp;","&amp;Sheet1!AJ31&amp;","&amp;Sheet1!AI31&amp;"))"&amp;";"&amp;Sheet1!$A31&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,27.3333333333333,154,28,,,154,27.3333333333333));4154</v>
+        <v>POLYGON ((154 27.3333333333333,154 28,,,154 27.3333333333333));4154</v>
       </c>
     </row>
     <row r="31" spans="3:35" x14ac:dyDescent="0.15">
@@ -10038,11 +10038,11 @@
       </c>
       <c r="AH31" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH32&amp;","&amp;Sheet1!AH31&amp;","&amp;Sheet1!AI31&amp;","&amp;Sheet1!AI32&amp;","&amp;Sheet1!AH32&amp;"))"&amp;";"&amp;Sheet1!$A32&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 26.6666666666667,153 27.3333333333333,154,27.3333333333333,154,26.6666666666667,153 26.6666666666667));4053</v>
+        <v>POLYGON ((153 26.6666666666667,153 27.3333333333333,154 27.3333333333333,154 26.6666666666667,153 26.6666666666667));4053</v>
       </c>
       <c r="AI31" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI32&amp;","&amp;Sheet1!AI31&amp;","&amp;Sheet1!AJ31&amp;","&amp;Sheet1!AJ32&amp;","&amp;Sheet1!AI32&amp;"))"&amp;";"&amp;Sheet1!$A32&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,26.6666666666667,154,27.3333333333333,,,154,26.6666666666667));4054</v>
+        <v>POLYGON ((154 26.6666666666667,154 27.3333333333333,,,154 26.6666666666667));4054</v>
       </c>
     </row>
     <row r="32" spans="3:35" x14ac:dyDescent="0.15">
@@ -10172,11 +10172,11 @@
       </c>
       <c r="AH32" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH33&amp;","&amp;Sheet1!AH32&amp;","&amp;Sheet1!AI32&amp;","&amp;Sheet1!AI33&amp;","&amp;Sheet1!AH33&amp;"))"&amp;";"&amp;Sheet1!$A33&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 26,153 26.6666666666667,154,26.6666666666667,154,26,153 26));3953</v>
+        <v>POLYGON ((153 26,153 26.6666666666667,154 26.6666666666667,154 26,153 26));3953</v>
       </c>
       <c r="AI32" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI33&amp;","&amp;Sheet1!AI32&amp;","&amp;Sheet1!AJ32&amp;","&amp;Sheet1!AJ33&amp;","&amp;Sheet1!AI33&amp;"))"&amp;";"&amp;Sheet1!$A33&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,26,154,26.6666666666667,,,154,26));3954</v>
+        <v>POLYGON ((154 26,154 26.6666666666667,,,154 26));3954</v>
       </c>
     </row>
     <row r="33" spans="3:35" x14ac:dyDescent="0.15">
@@ -10306,11 +10306,11 @@
       </c>
       <c r="AH33" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH34&amp;","&amp;Sheet1!AH33&amp;","&amp;Sheet1!AI33&amp;","&amp;Sheet1!AI34&amp;","&amp;Sheet1!AH34&amp;"))"&amp;";"&amp;Sheet1!$A34&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 25.3333333333333,153 26,154,26,154,25.3333333333333,153 25.3333333333333));3853</v>
+        <v>POLYGON ((153 25.3333333333333,153 26,154 26,154 25.3333333333333,153 25.3333333333333));3853</v>
       </c>
       <c r="AI33" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI34&amp;","&amp;Sheet1!AI33&amp;","&amp;Sheet1!AJ33&amp;","&amp;Sheet1!AJ34&amp;","&amp;Sheet1!AI34&amp;"))"&amp;";"&amp;Sheet1!$A34&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,25.3333333333333,154,26,,,154,25.3333333333333));3854</v>
+        <v>POLYGON ((154 25.3333333333333,154 26,,,154 25.3333333333333));3854</v>
       </c>
     </row>
     <row r="34" spans="3:35" x14ac:dyDescent="0.15">
@@ -10440,11 +10440,11 @@
       </c>
       <c r="AH34" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH35&amp;","&amp;Sheet1!AH34&amp;","&amp;Sheet1!AI34&amp;","&amp;Sheet1!AI35&amp;","&amp;Sheet1!AH35&amp;"))"&amp;";"&amp;Sheet1!$A35&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 24.6666666666667,153 25.3333333333333,154,25.3333333333333,154,24.6666666666667,153 24.6666666666667));3753</v>
+        <v>POLYGON ((153 24.6666666666667,153 25.3333333333333,154 25.3333333333333,154 24.6666666666667,153 24.6666666666667));3753</v>
       </c>
       <c r="AI34" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI35&amp;","&amp;Sheet1!AI34&amp;","&amp;Sheet1!AJ34&amp;","&amp;Sheet1!AJ35&amp;","&amp;Sheet1!AI35&amp;"))"&amp;";"&amp;Sheet1!$A35&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,24.6666666666667,154,25.3333333333333,,,154,24.6666666666667));3754</v>
+        <v>POLYGON ((154 24.6666666666667,154 25.3333333333333,,,154 24.6666666666667));3754</v>
       </c>
     </row>
     <row r="35" spans="3:35" x14ac:dyDescent="0.15">
@@ -10574,11 +10574,11 @@
       </c>
       <c r="AH35" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH36&amp;","&amp;Sheet1!AH35&amp;","&amp;Sheet1!AI35&amp;","&amp;Sheet1!AI36&amp;","&amp;Sheet1!AH36&amp;"))"&amp;";"&amp;Sheet1!$A36&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 24,153 24.6666666666667,154,24.6666666666667,154,24,153 24));3653</v>
+        <v>POLYGON ((153 24,153 24.6666666666667,154 24.6666666666667,154 24,153 24));3653</v>
       </c>
       <c r="AI35" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI36&amp;","&amp;Sheet1!AI35&amp;","&amp;Sheet1!AJ35&amp;","&amp;Sheet1!AJ36&amp;","&amp;Sheet1!AI36&amp;"))"&amp;";"&amp;Sheet1!$A36&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,24,154,24.6666666666667,,,154,24));3654</v>
+        <v>POLYGON ((154 24,154 24.6666666666667,,,154 24));3654</v>
       </c>
     </row>
     <row r="36" spans="3:35" x14ac:dyDescent="0.15">
@@ -10708,11 +10708,11 @@
       </c>
       <c r="AH36" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH37&amp;","&amp;Sheet1!AH36&amp;","&amp;Sheet1!AI36&amp;","&amp;Sheet1!AI37&amp;","&amp;Sheet1!AH37&amp;"))"&amp;";"&amp;Sheet1!$A37&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 23.3333333333333,153 24,154,24,154,23.3333333333333,153 23.3333333333333));3553</v>
+        <v>POLYGON ((153 23.3333333333333,153 24,154 24,154 23.3333333333333,153 23.3333333333333));3553</v>
       </c>
       <c r="AI36" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI37&amp;","&amp;Sheet1!AI36&amp;","&amp;Sheet1!AJ36&amp;","&amp;Sheet1!AJ37&amp;","&amp;Sheet1!AI37&amp;"))"&amp;";"&amp;Sheet1!$A37&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,23.3333333333333,154,24,,,154,23.3333333333333));3554</v>
+        <v>POLYGON ((154 23.3333333333333,154 24,,,154 23.3333333333333));3554</v>
       </c>
     </row>
     <row r="37" spans="3:35" x14ac:dyDescent="0.15">
@@ -10842,11 +10842,11 @@
       </c>
       <c r="AH37" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH38&amp;","&amp;Sheet1!AH37&amp;","&amp;Sheet1!AI37&amp;","&amp;Sheet1!AI38&amp;","&amp;Sheet1!AH38&amp;"))"&amp;";"&amp;Sheet1!$A38&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 22.6666666666667,153 23.3333333333333,154,23.3333333333333,154,22.6666666666667,153 22.6666666666667));3453</v>
+        <v>POLYGON ((153 22.6666666666667,153 23.3333333333333,154 23.3333333333333,154 22.6666666666667,153 22.6666666666667));3453</v>
       </c>
       <c r="AI37" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI38&amp;","&amp;Sheet1!AI37&amp;","&amp;Sheet1!AJ37&amp;","&amp;Sheet1!AJ38&amp;","&amp;Sheet1!AI38&amp;"))"&amp;";"&amp;Sheet1!$A38&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,22.6666666666667,154,23.3333333333333,,,154,22.6666666666667));3454</v>
+        <v>POLYGON ((154 22.6666666666667,154 23.3333333333333,,,154 22.6666666666667));3454</v>
       </c>
     </row>
     <row r="38" spans="3:35" x14ac:dyDescent="0.15">
@@ -10976,11 +10976,11 @@
       </c>
       <c r="AH38" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH39&amp;","&amp;Sheet1!AH38&amp;","&amp;Sheet1!AI38&amp;","&amp;Sheet1!AI39&amp;","&amp;Sheet1!AH39&amp;"))"&amp;";"&amp;Sheet1!$A39&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 22,153 22.6666666666667,154,22.6666666666667,154,22,153 22));3353</v>
+        <v>POLYGON ((153 22,153 22.6666666666667,154 22.6666666666667,154 22,153 22));3353</v>
       </c>
       <c r="AI38" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI39&amp;","&amp;Sheet1!AI38&amp;","&amp;Sheet1!AJ38&amp;","&amp;Sheet1!AJ39&amp;","&amp;Sheet1!AI39&amp;"))"&amp;";"&amp;Sheet1!$A39&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,22,154,22.6666666666667,,,154,22));3354</v>
+        <v>POLYGON ((154 22,154 22.6666666666667,,,154 22));3354</v>
       </c>
     </row>
     <row r="39" spans="3:35" x14ac:dyDescent="0.15">
@@ -11110,11 +11110,11 @@
       </c>
       <c r="AH39" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH40&amp;","&amp;Sheet1!AH39&amp;","&amp;Sheet1!AI39&amp;","&amp;Sheet1!AI40&amp;","&amp;Sheet1!AH40&amp;"))"&amp;";"&amp;Sheet1!$A40&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 21.3333333333333,153 22,154,22,154,21.3333333333333,153 21.3333333333333));3253</v>
+        <v>POLYGON ((153 21.3333333333333,153 22,154 22,154 21.3333333333333,153 21.3333333333333));3253</v>
       </c>
       <c r="AI39" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI40&amp;","&amp;Sheet1!AI39&amp;","&amp;Sheet1!AJ39&amp;","&amp;Sheet1!AJ40&amp;","&amp;Sheet1!AI40&amp;"))"&amp;";"&amp;Sheet1!$A40&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,21.3333333333333,154,22,,,154,21.3333333333333));3254</v>
+        <v>POLYGON ((154 21.3333333333333,154 22,,,154 21.3333333333333));3254</v>
       </c>
     </row>
     <row r="40" spans="3:35" x14ac:dyDescent="0.15">
@@ -11244,11 +11244,11 @@
       </c>
       <c r="AH40" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH41&amp;","&amp;Sheet1!AH40&amp;","&amp;Sheet1!AI40&amp;","&amp;Sheet1!AI41&amp;","&amp;Sheet1!AH41&amp;"))"&amp;";"&amp;Sheet1!$A41&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 20.6666666666667,153 21.3333333333333,154,21.3333333333333,154,20.6666666666667,153 20.6666666666667));3153</v>
+        <v>POLYGON ((153 20.6666666666667,153 21.3333333333333,154 21.3333333333333,154 20.6666666666667,153 20.6666666666667));3153</v>
       </c>
       <c r="AI40" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI41&amp;","&amp;Sheet1!AI40&amp;","&amp;Sheet1!AJ40&amp;","&amp;Sheet1!AJ41&amp;","&amp;Sheet1!AI41&amp;"))"&amp;";"&amp;Sheet1!$A41&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,20.6666666666667,154,21.3333333333333,,,154,20.6666666666667));3154</v>
+        <v>POLYGON ((154 20.6666666666667,154 21.3333333333333,,,154 20.6666666666667));3154</v>
       </c>
     </row>
     <row r="41" spans="3:35" x14ac:dyDescent="0.15">
@@ -11378,11 +11378,11 @@
       </c>
       <c r="AH41" t="str">
         <f>"POLYGON (("&amp;Sheet1!AH42&amp;","&amp;Sheet1!AH41&amp;","&amp;Sheet1!AI41&amp;","&amp;Sheet1!AI42&amp;","&amp;Sheet1!AH42&amp;"))"&amp;";"&amp;Sheet1!$A42&amp;Sheet1!AH$2</f>
-        <v>POLYGON ((153 20,153 20.6666666666667,154,20.6666666666667,154,20,153 20));3053</v>
+        <v>POLYGON ((153 20,153 20.6666666666667,154 20.6666666666667,154 20,153 20));3053</v>
       </c>
       <c r="AI41" t="str">
         <f>"POLYGON (("&amp;Sheet1!AI42&amp;","&amp;Sheet1!AI41&amp;","&amp;Sheet1!AJ41&amp;","&amp;Sheet1!AJ42&amp;","&amp;Sheet1!AI42&amp;"))"&amp;";"&amp;Sheet1!$A42&amp;Sheet1!AI$2</f>
-        <v>POLYGON ((154,20,154,20.6666666666667,,,154,20));3054</v>
+        <v>POLYGON ((154 20,154 20.6666666666667,,,154 20));3054</v>
       </c>
     </row>
   </sheetData>
